--- a/_files/doc/7808.com链接结构.xlsx
+++ b/_files/doc/7808.com链接结构.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Core\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\xinwenda\_files\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>7808.com 域名链接配置：</t>
   </si>
@@ -194,6 +194,58 @@
   </si>
   <si>
     <t>./home/views/zixun/cat.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zixun.7808.com/404.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/notFound.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/404.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zixun.7808.com/login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/user.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/user/user_login.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/user/user_register.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zixun.7808.com/register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +349,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -313,17 +383,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -365,75 +424,107 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,219 +828,279 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/_files/doc/7808.com链接结构.xlsx
+++ b/_files/doc/7808.com链接结构.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>7808.com 域名链接配置：</t>
   </si>
@@ -161,42 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./home/views/question/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/question/cat.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/question/detail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/item/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/item/cat.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/item/detail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/zixun/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/zixun/detail.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/views/zixun/cat.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>404页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,14 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./home/user/user_login.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./home/user/user_register.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zixun.7808.com/register.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +202,54 @@
   </si>
   <si>
     <t>register()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/question/question_list.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/question/question_detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/question/question_sub.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/item/item_index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/item/item_cat.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/item/item_detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/article/article_index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/article/article_cat.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/article/article_detail.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/user/user_login.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./home/views/user/user_register.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,6 +529,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,15 +826,15 @@
     <col min="2" max="2" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -844,8 +851,11 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -863,7 +873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -880,10 +890,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -900,10 +910,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -920,10 +930,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -940,10 +950,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -960,10 +970,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>22</v>
       </c>
@@ -980,10 +990,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
@@ -1000,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
         <v>29</v>
       </c>
@@ -1020,10 +1030,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
@@ -1040,67 +1050,67 @@
         <v>19</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E16" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
